--- a/hourly datasets/cap_gen_year2final.xlsx
+++ b/hourly datasets/cap_gen_year2final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1043929933933341</v>
+        <v>0.09420142906393127</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002403882001915797</v>
+        <v>0.003048912659270201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003049144970005595</v>
+        <v>0.0005962938982849801</v>
       </c>
       <c r="D3" t="n">
-        <v>1.094876231536325</v>
+        <v>3.710903485058106</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1923286085435092</v>
+        <v>0.008633298165580937</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00357253240087721</v>
+        <v>0.001880192533460522</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008380296404708807</v>
+        <v>0.004217632785079879</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1067968753952499</v>
+        <v>0.09725034172320146</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003170916757435269</v>
+        <v>0.006161054489117924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003938000221816495</v>
+        <v>0.0009669337875731515</v>
       </c>
       <c r="D4" t="n">
-        <v>2.15921859814417</v>
+        <v>6.544345097731695</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1747463825226905</v>
+        <v>0.1307511425145125</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00454760422972921</v>
+        <v>0.004265890102318803</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01088943774459974</v>
+        <v>0.008056218875917048</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1075639101507694</v>
+        <v>0.1003624835530492</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01454629667909667</v>
+        <v>0.0139757799171559</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006124719728625942</v>
+        <v>0.002128987993842845</v>
       </c>
       <c r="D5" t="n">
-        <v>3.589283632827513</v>
+        <v>10.27903694035477</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1077254828960231</v>
+        <v>0.03011572686101117</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002541749276779586</v>
+        <v>0.009803019988957475</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02655084408141376</v>
+        <v>0.01814853984535432</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1189392900724308</v>
+        <v>0.1081772089810872</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006813862953918558</v>
+        <v>0.02769360922876226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005223850341066441</v>
+        <v>0.003859606362895035</v>
       </c>
       <c r="D6" t="n">
-        <v>2.349277787042714</v>
+        <v>9.463451900014437</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09665364550540403</v>
+        <v>0.05392725218646769</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.003424981611248753</v>
+        <v>0.02012889306228829</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01705270751908588</v>
+        <v>0.03525832539523622</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1112068563472527</v>
+        <v>0.1218950382926935</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01061731854897075</v>
+        <v>0.05823091844794599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005151347830640078</v>
+        <v>0.008240921759839624</v>
       </c>
       <c r="D7" t="n">
-        <v>2.302706186341999</v>
+        <v>11.74256019774642</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06958319961181589</v>
+        <v>0.04604176990406618</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005205942718642234</v>
+        <v>0.04207896355436509</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02071404282607727</v>
+        <v>0.07438287334152691</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1150103119423048</v>
+        <v>0.1524323475118773</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009805877847305595</v>
+        <v>0.04841200587295257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004042697160113681</v>
+        <v>0.005392733206263865</v>
       </c>
       <c r="D8" t="n">
-        <v>2.938488028470741</v>
+        <v>14.6370017898739</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04680881245378361</v>
+        <v>0.05505200337544913</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00188205470636359</v>
+        <v>0.03784240638950259</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0177297009882476</v>
+        <v>0.05898160535640255</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1141988712406397</v>
+        <v>0.1426134349368838</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0128698607181382</v>
+        <v>0.0635275368151086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00239702311858835</v>
+        <v>0.00719214180242916</v>
       </c>
       <c r="D9" t="n">
-        <v>2.415633375464179</v>
+        <v>12.0268768325909</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02131309195219946</v>
+        <v>0.1208583929595987</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008171653599431962</v>
+        <v>0.04943115598679013</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01756806783684443</v>
+        <v>0.07762391764342709</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1172628541114723</v>
+        <v>0.1577289658790399</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1043929933933341</v>
+        <v>-0.09420142906393127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002181287031845296</v>
+        <v>0.0004998572668878386</v>
       </c>
       <c r="D10" t="n">
-        <v>-105.702670489945</v>
+        <v>-226.7623461832002</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01280657870199029</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1086683753818748</v>
+        <v>-0.09518113603888863</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1001176114047935</v>
+        <v>-0.09322172208897389</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04601887655391095</v>
+        <v>-0.04279039862578433</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002382109604028397</v>
+        <v>0.0005550383961205047</v>
       </c>
       <c r="D11" t="n">
-        <v>-39.73793436188751</v>
+        <v>-89.73190822408711</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004873296961284512</v>
+        <v>6.856851286177836e-237</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05068791560522037</v>
+        <v>-0.04387825921392318</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0413498375026015</v>
+        <v>-0.04170253803764547</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05837411683942315</v>
+        <v>0.05141103043814694</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03820053594343234</v>
+        <v>-0.03554855962313918</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002338652302787746</v>
+        <v>0.000543600921371943</v>
       </c>
       <c r="D12" t="n">
-        <v>-34.08351411866968</v>
+        <v>-76.39585559168611</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007279931143315853</v>
+        <v>4.387874846556969e-103</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04278438717202344</v>
+        <v>-0.03661400306549098</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03361668471484129</v>
+        <v>-0.03448311618078738</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06619245744990175</v>
+        <v>0.05865286944079209</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0329528614025924</v>
+        <v>-0.03186218027827979</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002276440147140316</v>
+        <v>0.0005369305992643614</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.03450423942712</v>
+        <v>-67.33658055144646</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007859451048419902</v>
+        <v>4.184231528168113e-16</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03741474869406457</v>
+        <v>-0.03291455001765726</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02849097411112025</v>
+        <v>-0.03080981053890231</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07144013199074169</v>
+        <v>0.06233924878565147</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02990144243101407</v>
+        <v>-0.02830834178911806</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002284449504869797</v>
+        <v>0.000531012311787611</v>
       </c>
       <c r="D14" t="n">
-        <v>-26.56715970579336</v>
+        <v>-59.06220349157483</v>
       </c>
       <c r="E14" t="n">
-        <v>0.006063196269037023</v>
+        <v>2.142622865227341e-11</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03437903307247464</v>
+        <v>-0.0293491116975341</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02542385178955348</v>
+        <v>-0.02726757188070202</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07449155096232002</v>
+        <v>0.06589308727481322</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02417696781987198</v>
+        <v>-0.02214728938908753</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002315984924489495</v>
+        <v>0.000518877148626403</v>
       </c>
       <c r="D15" t="n">
-        <v>-22.58006749248348</v>
+        <v>-49.35781968837958</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0200191816299921</v>
+        <v>3.867555779201483e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0287163994652672</v>
+        <v>-0.0231642747461753</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01963753617447674</v>
+        <v>-0.02113030403199976</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08021602557346211</v>
+        <v>0.07205413967484373</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02283381093676084</v>
+        <v>-0.02206827084049732</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002241828647654039</v>
+        <v>0.0005092709938389442</v>
       </c>
       <c r="D16" t="n">
-        <v>-22.16996773591929</v>
+        <v>-49.45060715153529</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01143224011420552</v>
+        <v>0.0160739469037296</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02722787318067337</v>
+        <v>-0.02306642852385788</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01843974869284831</v>
+        <v>-0.02107011315713676</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08155918245657326</v>
+        <v>0.07213315822343394</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01974242951205391</v>
+        <v>-0.01718308746102696</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002249342259286934</v>
+        <v>0.0005114946841900559</v>
       </c>
       <c r="D17" t="n">
-        <v>-19.10773074953879</v>
+        <v>-38.80609499517521</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05302236519491448</v>
+        <v>0.0007098777829041644</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02415121053776892</v>
+        <v>-0.01818560338147268</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01533364848633889</v>
+        <v>-0.01618057154058125</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08465056388128017</v>
+        <v>0.0770183416029043</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01969497079612347</v>
+        <v>-0.01601625246254909</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002310361770684206</v>
+        <v>0.0005196653275295691</v>
       </c>
       <c r="D18" t="n">
-        <v>-17.60675072766773</v>
+        <v>-35.92931741135929</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07785165536211169</v>
+        <v>7.647475809324413e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02422336570794976</v>
+        <v>-0.01703478265694762</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01516657588429718</v>
+        <v>-0.01499772226815056</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08469802259721063</v>
+        <v>0.07818517660138218</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01614716698026744</v>
+        <v>-0.01348634223331539</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002301297756218599</v>
+        <v>0.0005152318884402656</v>
       </c>
       <c r="D19" t="n">
-        <v>-14.30352607683598</v>
+        <v>-30.30745393491721</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07078395605071569</v>
+        <v>0.02555701692463587</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02065779456657192</v>
+        <v>-0.01449618299262599</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01163653939396295</v>
+        <v>-0.0124765014740048</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08824582641306665</v>
+        <v>0.08071508683061587</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01412840533442972</v>
+        <v>-0.01215317187024798</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0023372281920386</v>
+        <v>0.0005369545297122776</v>
       </c>
       <c r="D20" t="n">
-        <v>-12.13753779726753</v>
+        <v>-26.79104244387864</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06077572034384746</v>
+        <v>0.05007558715002679</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01870944820314275</v>
+        <v>-0.01320558859908848</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.009547362465716684</v>
+        <v>-0.01110075514140747</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09026458805890437</v>
+        <v>0.08204825719368329</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01243967385265551</v>
+        <v>-0.01114775004535714</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00236216867413432</v>
+        <v>0.0005511354133683927</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.55585362966085</v>
+        <v>-22.56049699506488</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08446909674558757</v>
+        <v>0.04714242947776345</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01706960528453697</v>
+        <v>-0.0122279609216971</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007809742420774052</v>
+        <v>-0.01006753916901718</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09195331954067858</v>
+        <v>0.08305367901857413</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01094111311343138</v>
+        <v>-0.009095904215864909</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002336651579858264</v>
+        <v>0.0005450284230243712</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.682890565873215</v>
+        <v>-18.18755923677869</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07819690092843612</v>
+        <v>0.05201737307034413</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01552102504093764</v>
+        <v>-0.0101641454803702</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00636120118592512</v>
+        <v>-0.008027662951359617</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09345188027990271</v>
+        <v>0.08510552484806636</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.009194424153270261</v>
+        <v>-0.008115053144098229</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002380926543224294</v>
+        <v>0.0005511406855162885</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.566103440733867</v>
+        <v>-15.65538627201859</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05084479932254547</v>
+        <v>0.001218237129286086</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01386112745173704</v>
+        <v>-0.009195274299665946</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004527720854803477</v>
+        <v>-0.007034831988530505</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09519856924006383</v>
+        <v>0.08608637591983304</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.007205061386013412</v>
+        <v>-0.006932632782908826</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002381904009064966</v>
+        <v>0.0005462834129494593</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.243631085264745</v>
+        <v>-13.14406989324688</v>
       </c>
       <c r="E24" t="n">
-        <v>0.11026020190145</v>
+        <v>0.006044530511736924</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.01187365902579557</v>
+        <v>-0.00800333380136835</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002536463746231258</v>
+        <v>-0.005861931764449301</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09718793200732068</v>
+        <v>0.08726879628102244</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.005784535934578616</v>
+        <v>-0.004423307554967946</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0023319037246121</v>
+        <v>0.0005168599487469275</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.82431341022752</v>
+        <v>-9.383190213251124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1852645295944218</v>
+        <v>1.42093771019859e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01035512694471744</v>
+        <v>-0.00543633926985044</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001213944924439788</v>
+        <v>-0.003410275840085452</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09860845745875547</v>
+        <v>0.08977812150896332</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04378650873715197</v>
+        <v>0.160890112647672</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004759386633510718</v>
+        <v>0.007761679762373025</v>
       </c>
       <c r="D26" t="n">
-        <v>9.377573456917482</v>
+        <v>45.39137576020961</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03686592514254311</v>
+        <v>0.02047360810682636</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03445805618198622</v>
+        <v>0.145677457287413</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05311496129231773</v>
+        <v>0.1761027680079308</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1481795021304861</v>
+        <v>0.2550915417116033</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year2final.xlsx
+++ b/hourly datasets/cap_gen_year2final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09420142906393127</v>
+        <v>0.09049513511090995</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003048912659270201</v>
+        <v>0.003347426813998247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005962938982849801</v>
+        <v>0.000665878960942262</v>
       </c>
       <c r="D3" t="n">
-        <v>3.710903485058106</v>
+        <v>3.788703076942618</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008633298165580937</v>
+        <v>0.07190223728855488</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001880192533460522</v>
+        <v>0.002042316992037553</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004217632785079879</v>
+        <v>0.004652536635958942</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09725034172320146</v>
+        <v>0.0938425619249082</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006161054489117924</v>
+        <v>0.006524160106938109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009669337875731515</v>
+        <v>0.001124109687773799</v>
       </c>
       <c r="D4" t="n">
-        <v>6.544345097731695</v>
+        <v>6.71544767635704</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1307511425145125</v>
+        <v>0.1181122036128385</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004265890102318803</v>
+        <v>0.004320926172570433</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008056218875917048</v>
+        <v>0.008727394041305785</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1003624835530492</v>
+        <v>0.09701929521784806</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0139757799171559</v>
+        <v>0.01271008040929035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002128987993842845</v>
+        <v>0.002139884475183412</v>
       </c>
       <c r="D5" t="n">
-        <v>10.27903694035477</v>
+        <v>9.92896642476817</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03011572686101117</v>
+        <v>0.008399546455660245</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009803019988957475</v>
+        <v>0.008515966712462176</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01814853984535432</v>
+        <v>0.01690419410611851</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1081772089810872</v>
+        <v>0.1032052155202003</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02769360922876226</v>
+        <v>0.02929658231407197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003859606362895035</v>
+        <v>0.003174969689635555</v>
       </c>
       <c r="D6" t="n">
-        <v>9.463451900014437</v>
+        <v>9.621034989479028</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05392725218646769</v>
+        <v>0.03164972333257153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02012889306228829</v>
+        <v>0.02307373201220046</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03525832539523622</v>
+        <v>0.03551943261594347</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1218950382926935</v>
+        <v>0.1197917174249819</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05823091844794599</v>
+        <v>0.05472478689381748</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008240921759839624</v>
+        <v>0.005859968356603244</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74256019774642</v>
+        <v>11.64539823016949</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04604176990406618</v>
+        <v>0.05755060551825619</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04207896355436509</v>
+        <v>0.04323942462158283</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07438287334152691</v>
+        <v>0.06621014916605214</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1524323475118773</v>
+        <v>0.1452199220047274</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04841200587295257</v>
+        <v>0.043916089520396</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005392733206263865</v>
+        <v>0.002909515939507776</v>
       </c>
       <c r="D8" t="n">
-        <v>14.6370017898739</v>
+        <v>13.96207983806881</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05505200337544913</v>
+        <v>0.01082240143028644</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03784240638950259</v>
+        <v>0.03821351666526435</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05898160535640255</v>
+        <v>0.04961866237552763</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1426134349368838</v>
+        <v>0.1344112246313059</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0635275368151086</v>
+        <v>0.06035385328064232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00719214180242916</v>
+        <v>0.006026824907837304</v>
       </c>
       <c r="D9" t="n">
-        <v>12.0268768325909</v>
+        <v>11.28006218658937</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1208583929595987</v>
+        <v>0.03510926504873733</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04943115598679013</v>
+        <v>0.04854145743147896</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07762391764342709</v>
+        <v>0.07216624912980568</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1577289658790399</v>
+        <v>0.1508489883915523</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09420142906393127</v>
+        <v>-0.09049513511090995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004998572668878386</v>
+        <v>0.0005195396003475644</v>
       </c>
       <c r="D10" t="n">
-        <v>-226.7623461832002</v>
+        <v>-221.2341438583777</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.477926801582545e-88</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09518113603888863</v>
+        <v>-0.09151342124422314</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09322172208897389</v>
+        <v>-0.08947684897759681</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04279039862578433</v>
+        <v>-0.04130348218667282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005550383961205047</v>
+        <v>0.0005650675202067526</v>
       </c>
       <c r="D11" t="n">
-        <v>-89.73190822408711</v>
+        <v>-88.38773677581179</v>
       </c>
       <c r="E11" t="n">
-        <v>6.856851286177836e-237</v>
+        <v>1.27612231990651e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04387825921392318</v>
+        <v>-0.04241100172381777</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04170253803764547</v>
+        <v>-0.04019596264952786</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05141103043814694</v>
+        <v>0.04919165292423713</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03554855962313918</v>
+        <v>-0.03425141366763935</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000543600921371943</v>
+        <v>0.0005605419625265517</v>
       </c>
       <c r="D12" t="n">
-        <v>-76.39585559168611</v>
+        <v>-75.34638046351934</v>
       </c>
       <c r="E12" t="n">
-        <v>4.387874846556969e-103</v>
+        <v>1.028039211721199e-58</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03661400306549098</v>
+        <v>-0.03535006354222557</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03448311618078738</v>
+        <v>-0.03315276379305315</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05865286944079209</v>
+        <v>0.0562437214432706</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03186218027827979</v>
+        <v>-0.03032906668776721</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005369305992643614</v>
+        <v>0.0005573368509232767</v>
       </c>
       <c r="D13" t="n">
-        <v>-67.33658055144646</v>
+        <v>-65.81928044362165</v>
       </c>
       <c r="E13" t="n">
-        <v>4.184231528168113e-16</v>
+        <v>2.841665619710848e-21</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03291455001765726</v>
+        <v>-0.03142143462143961</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03080981053890231</v>
+        <v>-0.02923669875409483</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06233924878565147</v>
+        <v>0.06016606842314274</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02830834178911806</v>
+        <v>-0.02695868219185382</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000531012311787611</v>
+        <v>0.0005443864680637976</v>
       </c>
       <c r="D14" t="n">
-        <v>-59.06220349157483</v>
+        <v>-57.44609989300942</v>
       </c>
       <c r="E14" t="n">
-        <v>2.142622865227341e-11</v>
+        <v>1.620462697338633e-08</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0293491116975341</v>
+        <v>-0.02802566706258665</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02726757188070202</v>
+        <v>-0.02589169732112099</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06589308727481322</v>
+        <v>0.06353645291905613</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02214728938908753</v>
+        <v>-0.02040074378001467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000518877148626403</v>
+        <v>0.0005331510781944995</v>
       </c>
       <c r="D15" t="n">
-        <v>-49.35781968837958</v>
+        <v>-46.92496857863095</v>
       </c>
       <c r="E15" t="n">
-        <v>3.867555779201483e-05</v>
+        <v>0.06457854306014886</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0231642747461753</v>
+        <v>-0.02144570764609049</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02113030403199976</v>
+        <v>-0.01935577991393884</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07205413967484373</v>
+        <v>0.07009439133089529</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02206827084049732</v>
+        <v>-0.02163670126504033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005092709938389442</v>
+        <v>0.0005407009793655527</v>
       </c>
       <c r="D16" t="n">
-        <v>-49.45060715153529</v>
+        <v>-48.6011897217476</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0160739469037296</v>
+        <v>0.005771924148443729</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02306642852385788</v>
+        <v>-0.02269646377122615</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02107011315713676</v>
+        <v>-0.02057693875885451</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07213315822343394</v>
+        <v>0.06885843384586962</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01718308746102696</v>
+        <v>-0.01673418178017153</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005114946841900559</v>
+        <v>0.0005312787809830647</v>
       </c>
       <c r="D17" t="n">
-        <v>-38.80609499517521</v>
+        <v>-38.09710969853217</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0007098777829041644</v>
+        <v>0.01009735931937212</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01818560338147268</v>
+        <v>-0.01777547629890282</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01618057154058125</v>
+        <v>-0.01569288726144024</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0770183416029043</v>
+        <v>0.07376095333073843</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01601625246254909</v>
+        <v>-0.0156339723328544</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005196653275295691</v>
+        <v>0.0005406094904982331</v>
       </c>
       <c r="D18" t="n">
-        <v>-35.92931741135929</v>
+        <v>-35.3930908720127</v>
       </c>
       <c r="E18" t="n">
-        <v>7.647475809324413e-06</v>
+        <v>8.390658734563298e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01703478265694762</v>
+        <v>-0.01669355490343811</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01499772226815056</v>
+        <v>-0.01457438976227069</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07818517660138218</v>
+        <v>0.07486116277805555</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01348634223331539</v>
+        <v>-0.0130914197108468</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005152318884402656</v>
+        <v>0.0005318459240172256</v>
       </c>
       <c r="D19" t="n">
-        <v>-30.30745393491721</v>
+        <v>-29.67411407118354</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02555701692463587</v>
+        <v>0.03072509237086258</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01449618299262599</v>
+        <v>-0.01413382566239125</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0124765014740048</v>
+        <v>-0.01204901375930236</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08071508683061587</v>
+        <v>0.07740371540006315</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01215317187024798</v>
+        <v>-0.01185236214597371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005369545297122776</v>
+        <v>0.0005440127703150486</v>
       </c>
       <c r="D20" t="n">
-        <v>-26.79104244387864</v>
+        <v>-26.44204712482027</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05007558715002679</v>
+        <v>0.000258591500223145</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01320558859908848</v>
+        <v>-0.01291861459330991</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01110075514140747</v>
+        <v>-0.0107861096986375</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08204825719368329</v>
+        <v>0.07864277296493624</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01114775004535714</v>
+        <v>-0.01078913312322125</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005511354133683927</v>
+        <v>0.0005608242328867433</v>
       </c>
       <c r="D21" t="n">
-        <v>-22.56049699506488</v>
+        <v>-22.24273819318974</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04714242947776345</v>
+        <v>0.0003751507668702509</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0122279609216971</v>
+        <v>-0.01188833565386875</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01006753916901718</v>
+        <v>-0.009689930592573752</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08305367901857413</v>
+        <v>0.07970600198768869</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.009095904215864909</v>
+        <v>-0.008774765339571177</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005450284230243712</v>
+        <v>0.000555969402569877</v>
       </c>
       <c r="D22" t="n">
-        <v>-18.18755923677869</v>
+        <v>-17.78113255348279</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05201737307034413</v>
+        <v>0.04433150004581192</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0101641454803702</v>
+        <v>-0.009864452479921933</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.008027662951359617</v>
+        <v>-0.007685078199220417</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08510552484806636</v>
+        <v>0.08172036977133877</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.008115053144098229</v>
+        <v>-0.007846585392965878</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005511406855162885</v>
+        <v>0.0005578916437813645</v>
       </c>
       <c r="D23" t="n">
-        <v>-15.65538627201859</v>
+        <v>-15.12098315162442</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001218237129286086</v>
+        <v>0.000444045246273641</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.009195274299665946</v>
+        <v>-0.008940039912811757</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.007034831988530505</v>
+        <v>-0.006753130873120002</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08608637591983304</v>
+        <v>0.08264854971794408</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.006932632782908826</v>
+        <v>-0.006444774704421595</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005462834129494593</v>
+        <v>0.000563779403696316</v>
       </c>
       <c r="D24" t="n">
-        <v>-13.14406989324688</v>
+        <v>-12.24378270470744</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006044530511736924</v>
+        <v>0.05288142156761928</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00800333380136835</v>
+        <v>-0.007549769334044969</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005861931764449301</v>
+        <v>-0.005339780074798224</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08726879628102244</v>
+        <v>0.08405036040648836</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.004423307554967946</v>
+        <v>-0.003811174303915324</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005168599487469275</v>
+        <v>0.0005333833225275422</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.383190213251124</v>
+        <v>-8.427283985656619</v>
       </c>
       <c r="E25" t="n">
-        <v>1.42093771019859e-05</v>
+        <v>0.04216900684630109</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00543633926985044</v>
+        <v>-0.004856593338819627</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.003410275840085452</v>
+        <v>-0.002765755269011017</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08977812150896332</v>
+        <v>0.08668396080699463</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.160890112647672</v>
+        <v>0.1304596362614871</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007761679762373025</v>
+        <v>0.004801510021456942</v>
       </c>
       <c r="D26" t="n">
-        <v>45.39137576020961</v>
+        <v>41.75042319181348</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02047360810682636</v>
+        <v>0.07051261104929706</v>
       </c>
       <c r="F26" t="n">
-        <v>0.145677457287413</v>
+        <v>0.1210488166057438</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1761027680079308</v>
+        <v>0.1398704559172305</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2550915417116033</v>
+        <v>0.2209547713723971</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year2final.xlsx
+++ b/hourly datasets/cap_gen_year2final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,623 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09049513511090995</v>
+        <v>0.1511929837035974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003347426813998247</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.000665878960942262</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.788703076942618</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.07190223728855488</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.002042316992037553</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.004652536635958942</v>
-      </c>
+        <v>0.06724275512676793</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.0938425619249082</v>
+        <v>0.2184357388303654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006524160106938109</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001124109687773799</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.71544767635704</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1181122036128385</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.004320926172570433</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.008727394041305785</v>
-      </c>
+        <v>0.08418409262773055</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.09701929521784806</v>
+        <v>0.235377076331328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01271008040929035</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002139884475183412</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.92896642476817</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.008399546455660245</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.008515966712462176</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01690419410611851</v>
-      </c>
+        <v>0.0729390783623069</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1032052155202003</v>
+        <v>0.2241320620659043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02929658231407197</v>
+        <v>0.1053506027715021</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003174969689635555</v>
+        <v>0.02167339809772063</v>
       </c>
       <c r="D6" t="n">
-        <v>9.621034989479028</v>
+        <v>3.179744723895204</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03164972333257153</v>
+        <v>0.01925318627597679</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02307373201220046</v>
+        <v>0.06279500275365198</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03551943261594347</v>
+        <v>0.1479062027893542</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1197917174249819</v>
+        <v>0.2565435864750995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05472478689381748</v>
+        <v>0.005519362832384833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005859968356603244</v>
+        <v>0.001921020065054912</v>
       </c>
       <c r="D7" t="n">
-        <v>11.64539823016949</v>
+        <v>0.5317544761566458</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05755060551825619</v>
+        <v>0.02216587799400568</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04323942462158283</v>
+        <v>0.001745451934325946</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06621014916605214</v>
+        <v>0.009293273730443644</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1452199220047274</v>
+        <v>0.1567123465359823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.043916089520396</v>
+        <v>0.004346615125721767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002909515939507776</v>
+        <v>0.001437797742217188</v>
       </c>
       <c r="D8" t="n">
-        <v>13.96207983806881</v>
+        <v>0.4280741776853021</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01082240143028644</v>
+        <v>0.01735869424994524</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03821351666526435</v>
+        <v>0.001526995741498312</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04961866237552763</v>
+        <v>0.007166234509945213</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1344112246313059</v>
+        <v>0.1555395988293192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06035385328064232</v>
+        <v>0.003111253100942859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006026824907837304</v>
+        <v>0.001597387348907678</v>
       </c>
       <c r="D9" t="n">
-        <v>11.28006218658937</v>
+        <v>0.2747853019944838</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03510926504873733</v>
+        <v>0.009620802224934737</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04854145743147896</v>
+        <v>-2.426985141860903e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07216624912980568</v>
+        <v>0.006246776053304256</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1508489883915523</v>
+        <v>0.1543042368045403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09049513511090995</v>
+        <v>0.002281557031170799</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005195396003475644</v>
+        <v>0.001469553226646643</v>
       </c>
       <c r="D10" t="n">
-        <v>-221.2341438583777</v>
+        <v>0.1593831328351943</v>
       </c>
       <c r="E10" t="n">
-        <v>6.477926801582545e-88</v>
+        <v>0.007994162922462087</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09151342124422314</v>
+        <v>-0.0006033936431157038</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08947684897759681</v>
+        <v>0.005166507705457313</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1534745407347682</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04130348218667282</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005650675202067526</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-88.38773677581179</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.27612231990651e-06</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04241100172381777</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04019596264952786</v>
-      </c>
+        <v>0.02719216878010662</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.04919165292423713</v>
+        <v>0.1783851524837041</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03425141366763935</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005605419625265517</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-75.34638046351934</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.028039211721199e-58</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03535006354222557</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03315276379305315</v>
-      </c>
+        <v>0.04333387137199506</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.0562437214432706</v>
+        <v>0.1945268550755925</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03032906668776721</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005573368509232767</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-65.81928044362165</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.841665619710848e-21</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03142143462143961</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.02923669875409483</v>
-      </c>
+        <v>0.05116513208645677</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06016606842314274</v>
+        <v>0.2023581157900542</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02695868219185382</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005443864680637976</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-57.44609989300942</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.620462697338633e-08</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02802566706258665</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02589169732112099</v>
-      </c>
+        <v>0.05794259655117408</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.06353645291905613</v>
+        <v>0.2091355802547715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02040074378001467</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005331510781944995</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-46.92496857863095</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.06457854306014886</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02144570764609049</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.01935577991393884</v>
-      </c>
+        <v>0.06363008891894281</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07009439133089529</v>
+        <v>0.2148230726225402</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02163670126504033</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0005407009793655527</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-48.6011897217476</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.005771924148443729</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02269646377122615</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02057693875885451</v>
-      </c>
+        <v>0.06464698723662146</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.06885843384586962</v>
+        <v>0.2158399709402189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01673418178017153</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005312787809830647</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-38.09710969853217</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.01009735931937212</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.01777547629890282</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01569288726144024</v>
-      </c>
+        <v>0.06978879151513726</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.07376095333073843</v>
+        <v>0.2209817752187347</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0156339723328544</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005406094904982331</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-35.3930908720127</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.390658734563298e-05</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01669355490343811</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01457438976227069</v>
-      </c>
+        <v>-0.1511929837035974</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.07486116277805555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0130914197108468</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005318459240172256</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-29.67411407118354</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.03072509237086258</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01413382566239125</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01204901375930236</v>
-      </c>
+        <v>0.07191508321670573</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.07740371540006315</v>
+        <v>0.2231080669203032</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01185236214597371</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005440127703150486</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-26.44204712482027</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.000258591500223145</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01291861459330991</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.0107861096986375</v>
-      </c>
+        <v>0.07291847001498843</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.07864277296493624</v>
+        <v>0.2241114537185859</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01078913312322125</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0005608242328867433</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-22.24273819318974</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0003751507668702509</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.01188833565386875</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.009689930592573752</v>
-      </c>
+        <v>0.07671145205121073</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.07970600198768869</v>
+        <v>0.2279044357548082</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.008774765339571177</v>
+        <v>0.07952161521634758</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000555969402569877</v>
+        <v>0.008712922022088863</v>
       </c>
       <c r="D22" t="n">
-        <v>-17.78113255348279</v>
+        <v>16.18464493242338</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04433150004581192</v>
+        <v>0.04429245316155475</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.009864452479921933</v>
+        <v>0.06232997798540513</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.007685078199220417</v>
+        <v>0.09671325244729007</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08172036977133877</v>
+        <v>0.230714598919945</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.007846585392965878</v>
+        <v>0.07924153439515313</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005578916437813645</v>
+        <v>0.008599759506797661</v>
       </c>
       <c r="D23" t="n">
-        <v>-15.12098315162442</v>
+        <v>15.77647001992187</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000444045246273641</v>
+        <v>0.05154580823434794</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.008940039912811757</v>
+        <v>0.06224082208765283</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.006753130873120002</v>
+        <v>0.09624224670265351</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08264854971794408</v>
+        <v>0.2304345180987506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.006444774704421595</v>
+        <v>0.07533904239850889</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000563779403696316</v>
+        <v>0.008844179812559066</v>
       </c>
       <c r="D24" t="n">
-        <v>-12.24378270470744</v>
+        <v>14.07046998928666</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05288142156761928</v>
+        <v>0.05354750948260025</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007549769334044969</v>
+        <v>0.05795113952223581</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005339780074798224</v>
+        <v>0.09272694527478191</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08405036040648836</v>
+        <v>0.2265320261021063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.003811174303915324</v>
+        <v>0.07609492199058178</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005333833225275422</v>
+        <v>0.009537257943117558</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.427283985656619</v>
+        <v>12.84387215165691</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04216900684630109</v>
+        <v>0.06174740533494194</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.004856593338819627</v>
+        <v>0.05733718807270819</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.002765755269011017</v>
+        <v>0.09485265590845532</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08668396080699463</v>
+        <v>0.2272879056941792</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.07286333936064335</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.009383114907197582</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.58786467537537</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.07182057290227815</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05426367764678228</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.09146300107450417</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2240563230642408</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.07043573809163245</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.009544492798319763</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.86188519138372</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07432537921892594</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05145736520768864</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.08941411097557651</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2216287217952299</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.07138704662766411</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.008846402334832425</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10.80243574607399</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.114330938783676</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0539806332626319</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.08879345999269646</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2225800303312616</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.1304596362614871</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.004801510021456942</v>
-      </c>
-      <c r="D26" t="n">
-        <v>41.75042319181348</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.07051261104929706</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.1210488166057438</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.1398704559172305</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2209547713723971</v>
+      <c r="B29" t="n">
+        <v>0.007983338162860594</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.002161529851217071</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26140961064552.93</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001212585199707491</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.003740353285897233</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01222632303982377</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.159176321866458</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year2final.xlsx
+++ b/hourly datasets/cap_gen_year2final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1511929837035974</v>
+        <v>0.09866275701177361</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06724275512676793</v>
+        <v>0.07117535186157629</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2184357388303654</v>
+        <v>0.1698381088733499</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08418409262773055</v>
+        <v>0.0875375577432094</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.235377076331328</v>
+        <v>0.186200314754983</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0729390783623069</v>
+        <v>0.08929271586081422</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.2241320620659043</v>
+        <v>0.1879554728725878</v>
       </c>
     </row>
     <row r="6">
@@ -554,25 +554,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1053506027715021</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02167339809772063</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.179744723895204</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01925318627597679</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.06279500275365198</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1479062027893542</v>
-      </c>
+        <v>0.1297238721402159</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.2565435864750995</v>
+        <v>0.2283866291519895</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +572,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005519362832384833</v>
+        <v>0.01991737152930807</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001921020065054912</v>
+        <v>0.004724198655420279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5317544761566458</v>
+        <v>0.8523608007022909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02216587799400568</v>
+        <v>0.02596587967591011</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001745451934325946</v>
+        <v>0.01063935756979954</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009293273730443644</v>
+        <v>0.02919538548881713</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1567123465359823</v>
+        <v>0.1185801285410817</v>
       </c>
     </row>
     <row r="8">
@@ -610,25 +600,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004346615125721767</v>
+        <v>0.01202422563404924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001437797742217188</v>
+        <v>0.003079965097511697</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4280741776853021</v>
+        <v>0.581425895044372</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01735869424994524</v>
+        <v>0.0247495421370266</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001526995741498312</v>
+        <v>0.005977679743849167</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007166234509945213</v>
+        <v>0.01807077152424898</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1555395988293192</v>
+        <v>0.1106869826458229</v>
       </c>
     </row>
     <row r="9">
@@ -638,25 +628,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003111253100942859</v>
+        <v>0.02075623521033395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001597387348907678</v>
+        <v>0.005028289645217988</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2747853019944838</v>
+        <v>0.6920075986725491</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009620802224934737</v>
+        <v>0.0119419471126582</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.426985141860903e-05</v>
+        <v>0.0108343923415104</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006246776053304256</v>
+        <v>0.0306780780791569</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1543042368045403</v>
+        <v>0.1194189922221076</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +656,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002281557031170799</v>
+        <v>0.01876962931216891</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001469553226646643</v>
+        <v>0.003990427111981799</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1593831328351943</v>
+        <v>0.563613201886343</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007994162922462087</v>
+        <v>0.01197788420240421</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0006033936431157038</v>
+        <v>0.01092969134454767</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005166507705457313</v>
+        <v>0.02660956727978983</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1534745407347682</v>
+        <v>0.1174323863239425</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +684,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02719216878010662</v>
+        <v>0.02665439086576339</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -702,7 +692,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1783851524837041</v>
+        <v>0.125317147877537</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04333387137199506</v>
+        <v>0.04444008523698022</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -720,7 +710,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1945268550755925</v>
+        <v>0.1431028422487538</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +720,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05116513208645677</v>
+        <v>0.05284586330793421</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -738,7 +728,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2023581157900542</v>
+        <v>0.1515086203197078</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05794259655117408</v>
+        <v>0.05929096156625544</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -756,7 +746,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2091355802547715</v>
+        <v>0.1579537185780291</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06363008891894281</v>
+        <v>0.0647307532444439</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -774,7 +764,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2148230726225402</v>
+        <v>0.1633935102562175</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +774,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06464698723662146</v>
+        <v>0.06698157313446509</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -792,7 +782,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2158399709402189</v>
+        <v>0.1656443301462387</v>
       </c>
     </row>
     <row r="17">
@@ -802,7 +792,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06978879151513726</v>
+        <v>0.07122168424452854</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -810,7 +800,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2209817752187347</v>
+        <v>0.1698844412563021</v>
       </c>
     </row>
     <row r="18">
@@ -820,13 +810,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1511929837035974</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.09866275701177361</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01293457410127628</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-15.98674484932656</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.04324973861679528</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.124071371995926</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.0732541420276209</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07191508321670573</v>
+        <v>0.07367202488660815</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -846,7 +846,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2231080669203032</v>
+        <v>0.1723347818983818</v>
       </c>
     </row>
     <row r="20">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07291847001498843</v>
+        <v>0.07328462749031499</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -864,7 +864,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2241114537185859</v>
+        <v>0.1719473845020886</v>
       </c>
     </row>
     <row r="21">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07671145205121073</v>
+        <v>0.0774210796666675</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -882,7 +882,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2279044357548082</v>
+        <v>0.1760838366784411</v>
       </c>
     </row>
     <row r="22">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07952161521634758</v>
+        <v>0.08081373114732876</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008712922022088863</v>
+        <v>0.009102482634710026</v>
       </c>
       <c r="D22" t="n">
-        <v>16.18464493242338</v>
+        <v>16.21609148284125</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04429245316155475</v>
+        <v>0.03801489172310542</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06232997798540513</v>
+        <v>0.06293598043017892</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09671325244729007</v>
+        <v>0.09869148186447806</v>
       </c>
       <c r="H22" t="n">
-        <v>0.230714598919945</v>
+        <v>0.1794764881591024</v>
       </c>
     </row>
     <row r="23">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.07924153439515313</v>
+        <v>0.08075664033354045</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008599759506797661</v>
+        <v>0.009093407507047017</v>
       </c>
       <c r="D23" t="n">
-        <v>15.77647001992187</v>
+        <v>15.67383018286934</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05154580823434794</v>
+        <v>0.04648444410622087</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06224082208765283</v>
+        <v>0.0628853429116049</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09624224670265351</v>
+        <v>0.09862793775547635</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2304345180987506</v>
+        <v>0.1794193973453141</v>
       </c>
     </row>
     <row r="24">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07533904239850889</v>
+        <v>0.0765923500713548</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008844179812559066</v>
+        <v>0.009400130650966678</v>
       </c>
       <c r="D24" t="n">
-        <v>14.07046998928666</v>
+        <v>13.9738056122143</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05354750948260025</v>
+        <v>0.04932007785943611</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05795113952223581</v>
+        <v>0.05811731122006756</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09272694527478191</v>
+        <v>0.09506738892264226</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2265320261021063</v>
+        <v>0.1752551070831284</v>
       </c>
     </row>
     <row r="25">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07609492199058178</v>
+        <v>0.0775071489822161</v>
       </c>
       <c r="C25" t="n">
-        <v>0.009537257943117558</v>
+        <v>0.010352278973985</v>
       </c>
       <c r="D25" t="n">
-        <v>12.84387215165691</v>
+        <v>12.536241077218</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06174740533494194</v>
+        <v>0.06068493445085101</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05733718807270819</v>
+        <v>0.05713154062896972</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09485265590845532</v>
+        <v>0.09788275733546273</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2272879056941792</v>
+        <v>0.1761699059939897</v>
       </c>
     </row>
     <row r="26">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07286333936064335</v>
+        <v>0.07571473007823297</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009383114907197582</v>
+        <v>0.009773697408846009</v>
       </c>
       <c r="D26" t="n">
-        <v>11.58786467537537</v>
+        <v>11.32295039087089</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07182057290227815</v>
+        <v>0.07023439580074119</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05426367764678228</v>
+        <v>0.05650815938003449</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09146300107450417</v>
+        <v>0.09492130077643143</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2240563230642408</v>
+        <v>0.1743774870900066</v>
       </c>
     </row>
     <row r="27">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07043573809163245</v>
+        <v>0.07637824796035497</v>
       </c>
       <c r="C27" t="n">
-        <v>0.009544492798319763</v>
+        <v>0.009739343173230108</v>
       </c>
       <c r="D27" t="n">
-        <v>10.86188519138372</v>
+        <v>10.95541747595428</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07432537921892594</v>
+        <v>0.07410456790748245</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05145736520768864</v>
+        <v>0.05723155328387933</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08941411097557651</v>
+        <v>0.09552494263683049</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2216287217952299</v>
+        <v>0.1750410049721286</v>
       </c>
     </row>
     <row r="28">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07138704662766411</v>
+        <v>0.07424768192339194</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008846402334832425</v>
+        <v>0.009322504667293849</v>
       </c>
       <c r="D28" t="n">
-        <v>10.80243574607399</v>
+        <v>10.50761822850089</v>
       </c>
       <c r="E28" t="n">
-        <v>0.114330938783676</v>
+        <v>0.10448923277448</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0539806332626319</v>
+        <v>0.05592103738459381</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08879345999269646</v>
+        <v>0.09257432646218938</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2225800303312616</v>
+        <v>0.1729104389351656</v>
       </c>
     </row>
     <row r="29">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007983338162860594</v>
+        <v>0.0227032714215708</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002161529851217071</v>
+        <v>0.003812182640184231</v>
       </c>
       <c r="D29" t="n">
-        <v>26140961064552.93</v>
+        <v>1.010503939714208</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001212585199707491</v>
+        <v>0.001264054602835931</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003740353285897233</v>
+        <v>0.01520386516299619</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01222632303982377</v>
+        <v>0.03020267768014518</v>
       </c>
       <c r="H29" t="n">
-        <v>0.159176321866458</v>
+        <v>0.1213660284333444</v>
       </c>
     </row>
   </sheetData>
